--- a/010_input/assembled_measures.xlsx
+++ b/010_input/assembled_measures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nv5inc-my.sharepoint.com/personal/andrewj_johnson_nv5_com/Documents/Documents/GitHub/Potential_Study_Tool_Prototype/010_input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3773A7F2-A6E0-481F-91BF-6EA4A70747F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{3773A7F2-A6E0-481F-91BF-6EA4A70747F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{076F03C2-803F-4991-A21F-4A15F6892B10}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-3420" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -667,12 +667,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC379"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="T1" sqref="T1:T1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="6" max="6" width="18.7109375" customWidth="1"/>
+    <col min="7" max="7" width="25.140625" customWidth="1"/>
     <col min="12" max="12" width="16.28515625" customWidth="1"/>
     <col min="13" max="13" width="19.42578125" customWidth="1"/>
     <col min="14" max="14" width="20.85546875" customWidth="1"/>
@@ -27310,6 +27312,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B011C3FEFFEFCF44990405A8404263A2" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ff8dfd3bc83a02ed6a3437faf473449a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="79a1cdf2-2d4f-42d7-aee4-ff0e208e0f4a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8a600ae29b0fcdec2bdff655f54bd0a0" ns2:_="">
     <xsd:import namespace="79a1cdf2-2d4f-42d7-aee4-ff0e208e0f4a"/>
@@ -27453,15 +27464,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -27469,6 +27471,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7742BE60-C810-4388-81AC-BF19576EDDBE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59620F56-1850-40FD-8DCB-EB3678619526}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -27486,14 +27496,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7742BE60-C810-4388-81AC-BF19576EDDBE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3D8206A-3930-49CF-9012-9CF437EACA17}">
   <ds:schemaRefs>
